--- a/data/community_center/data.xlsx
+++ b/data/community_center/data.xlsx
@@ -1404,7 +1404,7 @@
         <v>高松市川島コミュニティセンター</v>
       </c>
       <c r="E39" t="str">
-        <v>高松市川島本町191-2</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F39" t="str">
         <v>087-848-0054</v>
@@ -1586,7 +1586,7 @@
         <v>高松市庵治コミュニティセンター</v>
       </c>
       <c r="E46" t="str">
-        <v>高松市庵治町888－1</v>
+        <v>高松市庵治町888−1</v>
       </c>
       <c r="F46" t="str">
         <v>087-871-4162</v>

--- a/data/community_center/data.xlsx
+++ b/data/community_center/data.xlsx
@@ -1421,16 +1421,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>34.27361306</v>
+        <v>34.27421231</v>
       </c>
       <c r="C40" t="str">
-        <v>134.10510694</v>
+        <v>134.10479837</v>
       </c>
       <c r="D40" t="str">
         <v>高松市十河コミュニティセンター</v>
       </c>
       <c r="E40" t="str">
-        <v>高松市十川西町579-1</v>
+        <v>高松市十川西町299-1</v>
       </c>
       <c r="F40" t="str">
         <v>087-848-0166</v>

--- a/data/community_center/data.xlsx
+++ b/data/community_center/data.xlsx
@@ -1395,10 +1395,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>34.27649833</v>
+        <v>34.27707225</v>
       </c>
       <c r="C39" t="str">
-        <v>134.08546139</v>
+        <v>134.08578588</v>
       </c>
       <c r="D39" t="str">
         <v>高松市川島コミュニティセンター</v>
